--- a/products.xlsx
+++ b/products.xlsx
@@ -451,14 +451,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>블루투스 스피커</t>
+          <t>키보드</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D2" t="n">
-        <v>833129</v>
+        <v>422067</v>
       </c>
     </row>
     <row r="3">
@@ -469,14 +469,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>태블릿</t>
+          <t>스마트폰</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>1439046</v>
+        <v>1069778</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>966728</v>
+        <v>898413</v>
       </c>
     </row>
     <row r="5">
@@ -505,14 +505,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>게이밍 마우스</t>
+          <t>스마트폰</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
-        <v>733703</v>
+        <v>1506338</v>
       </c>
     </row>
     <row r="6">
@@ -523,14 +523,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>스마트폰</t>
+          <t>키보드</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>1155509</v>
+        <v>282809</v>
       </c>
     </row>
     <row r="7">
@@ -541,14 +541,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>게이밍 마우스</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
-        <v>1972233</v>
+        <v>1309373</v>
       </c>
     </row>
     <row r="8">
@@ -559,14 +559,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>노트북</t>
+          <t>이어폰</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>1134079</v>
+        <v>1838747</v>
       </c>
     </row>
     <row r="9">
@@ -577,14 +577,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>노트북</t>
+          <t>키보드</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D9" t="n">
-        <v>853755</v>
+        <v>1390182</v>
       </c>
     </row>
     <row r="10">
@@ -595,14 +595,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>스마트폰</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>680140</v>
+        <v>42070</v>
       </c>
     </row>
     <row r="11">
@@ -613,14 +613,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>모니터</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="D11" t="n">
-        <v>128871</v>
+        <v>1427416</v>
       </c>
     </row>
     <row r="12">
@@ -631,14 +631,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>노트북</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
-        <v>705448</v>
+        <v>135305</v>
       </c>
     </row>
     <row r="13">
@@ -649,14 +649,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>블루투스 스피커</t>
+          <t>프린터</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="D13" t="n">
-        <v>1193308</v>
+        <v>889271</v>
       </c>
     </row>
     <row r="14">
@@ -667,14 +667,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>이어폰</t>
+          <t>태블릿</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D14" t="n">
-        <v>1665530</v>
+        <v>249132</v>
       </c>
     </row>
     <row r="15">
@@ -685,14 +685,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>태블릿</t>
+          <t>게이밍 마우스</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D15" t="n">
-        <v>240740</v>
+        <v>550602</v>
       </c>
     </row>
     <row r="16">
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>1285701</v>
+        <v>1923928</v>
       </c>
     </row>
     <row r="17">
@@ -721,14 +721,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>스마트폰</t>
+          <t>프린터</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="D17" t="n">
-        <v>351198</v>
+        <v>1368598</v>
       </c>
     </row>
     <row r="18">
@@ -739,14 +739,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="D18" t="n">
-        <v>1311490</v>
+        <v>305998</v>
       </c>
     </row>
     <row r="19">
@@ -757,14 +757,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>이어폰</t>
+          <t>태블릿</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D19" t="n">
-        <v>1386067</v>
+        <v>248227</v>
       </c>
     </row>
     <row r="20">
@@ -775,14 +775,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>이어폰</t>
+          <t>태블릿</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D20" t="n">
-        <v>1176781</v>
+        <v>528606</v>
       </c>
     </row>
     <row r="21">
@@ -793,14 +793,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>스마트폰</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>1038323</v>
+        <v>656884</v>
       </c>
     </row>
     <row r="22">
@@ -811,14 +811,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>블루투스 스피커</t>
+          <t>키보드</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>1662222</v>
+        <v>150466</v>
       </c>
     </row>
     <row r="23">
@@ -829,14 +829,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>스마트폰</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D23" t="n">
-        <v>622775</v>
+        <v>1200888</v>
       </c>
     </row>
     <row r="24">
@@ -847,14 +847,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>이어폰</t>
+          <t>모니터</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D24" t="n">
-        <v>268234</v>
+        <v>305027</v>
       </c>
     </row>
     <row r="25">
@@ -865,14 +865,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>스마트폰</t>
+          <t>스마트워치</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D25" t="n">
-        <v>1458589</v>
+        <v>411257</v>
       </c>
     </row>
     <row r="26">
@@ -887,10 +887,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>1510183</v>
+        <v>506676</v>
       </c>
     </row>
     <row r="27">
@@ -901,14 +901,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>게이밍 마우스</t>
+          <t>태블릿</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D27" t="n">
-        <v>1226822</v>
+        <v>88030</v>
       </c>
     </row>
     <row r="28">
@@ -919,14 +919,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>게이밍 마우스</t>
+          <t>스마트워치</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>684055</v>
+        <v>397635</v>
       </c>
     </row>
     <row r="29">
@@ -941,10 +941,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D29" t="n">
-        <v>431840</v>
+        <v>1879677</v>
       </c>
     </row>
     <row r="30">
@@ -955,14 +955,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>블루투스 스피커</t>
+          <t>스마트워치</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D30" t="n">
-        <v>133989</v>
+        <v>1575841</v>
       </c>
     </row>
     <row r="31">
@@ -973,14 +973,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>프린터</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D31" t="n">
-        <v>178799</v>
+        <v>1172612</v>
       </c>
     </row>
     <row r="32">
@@ -998,7 +998,7 @@
         <v>70</v>
       </c>
       <c r="D32" t="n">
-        <v>850201</v>
+        <v>568344</v>
       </c>
     </row>
     <row r="33">
@@ -1009,14 +1009,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>게이밍 마우스</t>
+          <t>키보드</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D33" t="n">
-        <v>540709</v>
+        <v>1652038</v>
       </c>
     </row>
     <row r="34">
@@ -1027,14 +1027,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>게이밍 마우스</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D34" t="n">
-        <v>1666019</v>
+        <v>1659349</v>
       </c>
     </row>
     <row r="35">
@@ -1045,14 +1045,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>블루투스 스피커</t>
+          <t>스마트폰</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>730523</v>
+        <v>476103</v>
       </c>
     </row>
     <row r="36">
@@ -1063,14 +1063,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>태블릿</t>
+          <t>스마트폰</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D36" t="n">
-        <v>10210</v>
+        <v>1351238</v>
       </c>
     </row>
     <row r="37">
@@ -1081,14 +1081,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>이어폰</t>
+          <t>프린터</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D37" t="n">
-        <v>1663547</v>
+        <v>1391982</v>
       </c>
     </row>
     <row r="38">
@@ -1099,14 +1099,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D38" t="n">
-        <v>877772</v>
+        <v>1006657</v>
       </c>
     </row>
     <row r="39">
@@ -1117,14 +1117,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>스마트폰</t>
+          <t>프린터</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="D39" t="n">
-        <v>1448539</v>
+        <v>1701599</v>
       </c>
     </row>
     <row r="40">
@@ -1135,14 +1135,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>모니터</t>
+          <t>키보드</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="D40" t="n">
-        <v>1614800</v>
+        <v>1012661</v>
       </c>
     </row>
     <row r="41">
@@ -1153,14 +1153,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>스마트폰</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D41" t="n">
-        <v>946705</v>
+        <v>1089637</v>
       </c>
     </row>
     <row r="42">
@@ -1171,14 +1171,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>스마트폰</t>
+          <t>스마트워치</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D42" t="n">
-        <v>1297706</v>
+        <v>21422</v>
       </c>
     </row>
     <row r="43">
@@ -1189,14 +1189,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>모니터</t>
+          <t>게이밍 마우스</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
-        <v>1698845</v>
+        <v>527375</v>
       </c>
     </row>
     <row r="44">
@@ -1207,14 +1207,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>태블릿</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="D44" t="n">
-        <v>1601412</v>
+        <v>336103</v>
       </c>
     </row>
     <row r="45">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D45" t="n">
-        <v>1852249</v>
+        <v>455108</v>
       </c>
     </row>
     <row r="46">
@@ -1243,14 +1243,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>모니터</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D46" t="n">
-        <v>847726</v>
+        <v>49474</v>
       </c>
     </row>
     <row r="47">
@@ -1261,14 +1261,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>이어폰</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D47" t="n">
-        <v>900897</v>
+        <v>647381</v>
       </c>
     </row>
     <row r="48">
@@ -1279,14 +1279,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D48" t="n">
-        <v>784599</v>
+        <v>1451381</v>
       </c>
     </row>
     <row r="49">
@@ -1297,14 +1297,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>모니터</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D49" t="n">
-        <v>1067668</v>
+        <v>784830</v>
       </c>
     </row>
     <row r="50">
@@ -1315,14 +1315,14 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>태블릿</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D50" t="n">
-        <v>1013275</v>
+        <v>1034560</v>
       </c>
     </row>
     <row r="51">
@@ -1333,14 +1333,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>모니터</t>
+          <t>키보드</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D51" t="n">
-        <v>872142</v>
+        <v>1514943</v>
       </c>
     </row>
     <row r="52">
@@ -1351,14 +1351,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>게이밍 마우스</t>
+          <t>이어폰</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D52" t="n">
-        <v>527452</v>
+        <v>1196721</v>
       </c>
     </row>
     <row r="53">
@@ -1369,14 +1369,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>키보드</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>449391</v>
+        <v>1867875</v>
       </c>
     </row>
     <row r="54">
@@ -1387,14 +1387,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>모니터</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="D54" t="n">
-        <v>675943</v>
+        <v>662518</v>
       </c>
     </row>
     <row r="55">
@@ -1405,14 +1405,14 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>블루투스 스피커</t>
+          <t>스마트폰</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D55" t="n">
-        <v>1041603</v>
+        <v>1144036</v>
       </c>
     </row>
     <row r="56">
@@ -1423,14 +1423,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>태블릿</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D56" t="n">
-        <v>207777</v>
+        <v>1055821</v>
       </c>
     </row>
     <row r="57">
@@ -1441,14 +1441,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>태블릿</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D57" t="n">
-        <v>572683</v>
+        <v>101765</v>
       </c>
     </row>
     <row r="58">
@@ -1459,14 +1459,14 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>태블릿</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D58" t="n">
-        <v>1296861</v>
+        <v>16760</v>
       </c>
     </row>
     <row r="59">
@@ -1477,14 +1477,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>블루투스 스피커</t>
+          <t>태블릿</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="D59" t="n">
-        <v>1285816</v>
+        <v>1562150</v>
       </c>
     </row>
     <row r="60">
@@ -1495,14 +1495,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>스마트폰</t>
+          <t>스마트워치</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D60" t="n">
-        <v>1020005</v>
+        <v>1775688</v>
       </c>
     </row>
     <row r="61">
@@ -1513,14 +1513,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>스마트폰</t>
+          <t>게이밍 마우스</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>178664</v>
+        <v>992872</v>
       </c>
     </row>
     <row r="62">
@@ -1531,14 +1531,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>이어폰</t>
+          <t>태블릿</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D62" t="n">
-        <v>1386241</v>
+        <v>1454294</v>
       </c>
     </row>
     <row r="63">
@@ -1549,14 +1549,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>키보드</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D63" t="n">
-        <v>1604284</v>
+        <v>1228766</v>
       </c>
     </row>
     <row r="64">
@@ -1567,14 +1567,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>노트북</t>
+          <t>프린터</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="D64" t="n">
-        <v>1527914</v>
+        <v>1022852</v>
       </c>
     </row>
     <row r="65">
@@ -1585,14 +1585,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>모니터</t>
+          <t>노트북</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D65" t="n">
-        <v>504286</v>
+        <v>1940850</v>
       </c>
     </row>
     <row r="66">
@@ -1603,14 +1603,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>게이밍 마우스</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D66" t="n">
-        <v>1865731</v>
+        <v>435648</v>
       </c>
     </row>
     <row r="67">
@@ -1621,14 +1621,14 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D67" t="n">
-        <v>627877</v>
+        <v>1472670</v>
       </c>
     </row>
     <row r="68">
@@ -1639,14 +1639,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>게이밍 마우스</t>
+          <t>키보드</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>1564678</v>
+        <v>1163589</v>
       </c>
     </row>
     <row r="69">
@@ -1657,14 +1657,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>블루투스 스피커</t>
+          <t>태블릿</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D69" t="n">
-        <v>603217</v>
+        <v>1324595</v>
       </c>
     </row>
     <row r="70">
@@ -1675,14 +1675,14 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>스마트폰</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D70" t="n">
-        <v>884733</v>
+        <v>1814427</v>
       </c>
     </row>
     <row r="71">
@@ -1693,14 +1693,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>게이밍 마우스</t>
+          <t>이어폰</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D71" t="n">
-        <v>1407193</v>
+        <v>365057</v>
       </c>
     </row>
     <row r="72">
@@ -1711,14 +1711,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>스마트폰</t>
+          <t>모니터</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D72" t="n">
-        <v>658217</v>
+        <v>1775906</v>
       </c>
     </row>
     <row r="73">
@@ -1729,14 +1729,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>태블릿</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>1263648</v>
+        <v>1617364</v>
       </c>
     </row>
     <row r="74">
@@ -1747,14 +1747,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>모니터</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="D74" t="n">
-        <v>1040782</v>
+        <v>1793145</v>
       </c>
     </row>
     <row r="75">
@@ -1765,14 +1765,14 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>프린터</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D75" t="n">
-        <v>1602737</v>
+        <v>1124021</v>
       </c>
     </row>
     <row r="76">
@@ -1783,14 +1783,14 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>태블릿</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D76" t="n">
-        <v>1622545</v>
+        <v>228367</v>
       </c>
     </row>
     <row r="77">
@@ -1801,14 +1801,14 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>모니터</t>
+          <t>노트북</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D77" t="n">
-        <v>1278745</v>
+        <v>936347</v>
       </c>
     </row>
     <row r="78">
@@ -1819,14 +1819,14 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>게이밍 마우스</t>
+          <t>이어폰</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D78" t="n">
-        <v>615594</v>
+        <v>124695</v>
       </c>
     </row>
     <row r="79">
@@ -1837,14 +1837,14 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>노트북</t>
+          <t>태블릿</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>574263</v>
+        <v>288156</v>
       </c>
     </row>
     <row r="80">
@@ -1855,14 +1855,14 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>이어폰</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>684791</v>
+        <v>1642204</v>
       </c>
     </row>
     <row r="81">
@@ -1873,14 +1873,14 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>노트북</t>
+          <t>태블릿</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D81" t="n">
-        <v>1768193</v>
+        <v>1104665</v>
       </c>
     </row>
     <row r="82">
@@ -1891,14 +1891,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>이어폰</t>
+          <t>스마트워치</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D82" t="n">
-        <v>1800134</v>
+        <v>491583</v>
       </c>
     </row>
     <row r="83">
@@ -1909,14 +1909,14 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>키보드</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D83" t="n">
-        <v>1705202</v>
+        <v>103084</v>
       </c>
     </row>
     <row r="84">
@@ -1927,14 +1927,14 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>태블릿</t>
+          <t>블루투스 스피커</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="D84" t="n">
-        <v>916752</v>
+        <v>70793</v>
       </c>
     </row>
     <row r="85">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D85" t="n">
-        <v>1666734</v>
+        <v>1546431</v>
       </c>
     </row>
     <row r="86">
@@ -1963,14 +1963,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>모니터</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D86" t="n">
-        <v>705276</v>
+        <v>1528107</v>
       </c>
     </row>
     <row r="87">
@@ -1981,14 +1981,14 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>모니터</t>
+          <t>스마트워치</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D87" t="n">
-        <v>1272787</v>
+        <v>968131</v>
       </c>
     </row>
     <row r="88">
@@ -1999,14 +1999,14 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>태블릿</t>
+          <t>스마트워치</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D88" t="n">
-        <v>1087230</v>
+        <v>601828</v>
       </c>
     </row>
     <row r="89">
@@ -2017,14 +2017,14 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>이어폰</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D89" t="n">
-        <v>710828</v>
+        <v>1850564</v>
       </c>
     </row>
     <row r="90">
@@ -2035,14 +2035,14 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>모니터</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D90" t="n">
-        <v>619856</v>
+        <v>1650014</v>
       </c>
     </row>
     <row r="91">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>프린터</t>
+          <t>노트북</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D91" t="n">
-        <v>1192654</v>
+        <v>1031048</v>
       </c>
     </row>
     <row r="92">
@@ -2071,14 +2071,14 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>노트북</t>
+          <t>스마트폰</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D92" t="n">
-        <v>520355</v>
+        <v>20971</v>
       </c>
     </row>
     <row r="93">
@@ -2089,14 +2089,14 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>태블릿</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="D93" t="n">
-        <v>460313</v>
+        <v>1975558</v>
       </c>
     </row>
     <row r="94">
@@ -2107,14 +2107,14 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>태블릿</t>
+          <t>이어폰</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D94" t="n">
-        <v>724911</v>
+        <v>945581</v>
       </c>
     </row>
     <row r="95">
@@ -2125,14 +2125,14 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>이어폰</t>
+          <t>게이밍 마우스</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D95" t="n">
-        <v>348913</v>
+        <v>1807134</v>
       </c>
     </row>
     <row r="96">
@@ -2143,14 +2143,14 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>키보드</t>
+          <t>스마트워치</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D96" t="n">
-        <v>971226</v>
+        <v>162261</v>
       </c>
     </row>
     <row r="97">
@@ -2161,14 +2161,14 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>모니터</t>
+          <t>이어폰</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="D97" t="n">
-        <v>715625</v>
+        <v>996017</v>
       </c>
     </row>
     <row r="98">
@@ -2179,14 +2179,14 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>블루투스 스피커</t>
+          <t>스마트워치</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D98" t="n">
-        <v>631537</v>
+        <v>909246</v>
       </c>
     </row>
     <row r="99">
@@ -2197,14 +2197,14 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>게이밍 마우스</t>
+          <t>모니터</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>1088363</v>
+        <v>1555164</v>
       </c>
     </row>
     <row r="100">
@@ -2215,14 +2215,14 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>모니터</t>
+          <t>프린터</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D100" t="n">
-        <v>1439889</v>
+        <v>473080</v>
       </c>
     </row>
     <row r="101">
@@ -2233,14 +2233,14 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>스마트워치</t>
+          <t>키보드</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D101" t="n">
-        <v>1233808</v>
+        <v>1736513</v>
       </c>
     </row>
   </sheetData>
